--- a/7/2/3/2/Títulos de deuda 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/2/Títulos de deuda 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG74"/>
+  <dimension ref="A1:BG75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13731,13 +13734,13 @@
         <v>188</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G74">
         <v>220</v>
       </c>
       <c r="H74">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I74">
         <v>562</v>
@@ -13752,22 +13755,22 @@
         <v>-1179</v>
       </c>
       <c r="M74">
-        <v>684</v>
+        <v>496</v>
       </c>
       <c r="N74">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="O74">
         <v>15</v>
       </c>
       <c r="P74">
-        <v>-999</v>
+        <v>-803</v>
       </c>
       <c r="Q74">
         <v>488</v>
       </c>
       <c r="R74">
-        <v>-92</v>
+        <v>-93</v>
       </c>
       <c r="S74">
         <v>372</v>
@@ -13776,19 +13779,19 @@
         <v>316</v>
       </c>
       <c r="U74">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V74">
         <v>-10</v>
       </c>
       <c r="W74">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z74">
         <v>2</v>
@@ -13803,7 +13806,7 @@
         <v>5</v>
       </c>
       <c r="AD74">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE74">
         <v>1396</v>
@@ -13833,19 +13836,19 @@
         <v>1832</v>
       </c>
       <c r="AN74">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="AO74">
         <v>-19</v>
       </c>
       <c r="AP74">
-        <v>833</v>
+        <v>483</v>
       </c>
       <c r="AQ74">
         <v>8</v>
       </c>
       <c r="AR74">
-        <v>-1313</v>
+        <v>-738</v>
       </c>
       <c r="AS74">
         <v>0</v>
@@ -13854,16 +13857,16 @@
         <v>170</v>
       </c>
       <c r="AU74">
-        <v>-61</v>
+        <v>-218</v>
       </c>
       <c r="AV74">
         <v>37</v>
       </c>
       <c r="AW74">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="AX74">
-        <v>2379</v>
+        <v>2935</v>
       </c>
       <c r="AY74">
         <v>1527</v>
@@ -13872,25 +13875,204 @@
         <v>139</v>
       </c>
       <c r="BA74">
-        <v>-13</v>
+        <v>345</v>
       </c>
       <c r="BB74">
         <v>527</v>
       </c>
       <c r="BC74">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="BD74">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="BE74">
         <v>210</v>
       </c>
       <c r="BF74">
-        <v>-169</v>
+        <v>141</v>
       </c>
       <c r="BG74">
         <v>-66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>9349</v>
+      </c>
+      <c r="C75">
+        <v>8039</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>-130</v>
+      </c>
+      <c r="F75">
+        <v>1138</v>
+      </c>
+      <c r="G75">
+        <v>228</v>
+      </c>
+      <c r="H75">
+        <v>-30</v>
+      </c>
+      <c r="I75">
+        <v>181</v>
+      </c>
+      <c r="J75">
+        <v>-177</v>
+      </c>
+      <c r="K75">
+        <v>-898</v>
+      </c>
+      <c r="L75">
+        <v>2045</v>
+      </c>
+      <c r="M75">
+        <v>-298</v>
+      </c>
+      <c r="N75">
+        <v>-709</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>103</v>
+      </c>
+      <c r="Q75">
+        <v>-1856</v>
+      </c>
+      <c r="R75">
+        <v>-4</v>
+      </c>
+      <c r="S75">
+        <v>-28</v>
+      </c>
+      <c r="T75">
+        <v>-156</v>
+      </c>
+      <c r="U75">
+        <v>234</v>
+      </c>
+      <c r="V75">
+        <v>-117</v>
+      </c>
+      <c r="W75">
+        <v>5</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>-31</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>12</v>
+      </c>
+      <c r="AB75">
+        <v>-82</v>
+      </c>
+      <c r="AC75">
+        <v>73</v>
+      </c>
+      <c r="AD75">
+        <v>374</v>
+      </c>
+      <c r="AE75">
+        <v>3714</v>
+      </c>
+      <c r="AF75">
+        <v>1917</v>
+      </c>
+      <c r="AG75">
+        <v>-884</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>728</v>
+      </c>
+      <c r="AJ75">
+        <v>-1072</v>
+      </c>
+      <c r="AK75">
+        <v>-65</v>
+      </c>
+      <c r="AL75">
+        <v>-151</v>
+      </c>
+      <c r="AM75">
+        <v>3241</v>
+      </c>
+      <c r="AN75">
+        <v>199</v>
+      </c>
+      <c r="AO75">
+        <v>-60</v>
+      </c>
+      <c r="AP75">
+        <v>56</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>-17</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>-67</v>
+      </c>
+      <c r="AU75">
+        <v>-393</v>
+      </c>
+      <c r="AV75">
+        <v>-9</v>
+      </c>
+      <c r="AW75">
+        <v>689</v>
+      </c>
+      <c r="AX75">
+        <v>84</v>
+      </c>
+      <c r="AY75">
+        <v>1709</v>
+      </c>
+      <c r="AZ75">
+        <v>498</v>
+      </c>
+      <c r="BA75">
+        <v>101</v>
+      </c>
+      <c r="BB75">
+        <v>-2561</v>
+      </c>
+      <c r="BC75">
+        <v>600</v>
+      </c>
+      <c r="BD75">
+        <v>28</v>
+      </c>
+      <c r="BE75">
+        <v>-179</v>
+      </c>
+      <c r="BF75">
+        <v>-89</v>
+      </c>
+      <c r="BG75">
+        <v>-23</v>
       </c>
     </row>
   </sheetData>
